--- a/app/excel/3_2.xlsx
+++ b/app/excel/3_2.xlsx
@@ -413,7 +413,7 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -438,7 +438,7 @@
         <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -463,7 +463,7 @@
         <v>17</v>
       </c>
       <c r="G4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5"/>
